--- a/biology/Botanique/Rhododendron_anthopogon/Rhododendron_anthopogon.xlsx
+++ b/biology/Botanique/Rhododendron_anthopogon/Rhododendron_anthopogon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron anthopogon est une espèce de plantes de la famille des Ericaceae.
 Il s'agit d'un rhododendron nain, présent à l'étage subalpin de montagnes himalayennes comme le Nathu La.
-Il a été dédcrit la première fois par David Don en 1821 dans le tome 3 de Memoirs of the Wernerian Natural History Society[2].
+Il a été dédcrit la première fois par David Don en 1821 dans le tome 3 de Memoirs of the Wernerian Natural History Society.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,11 +553,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (27 août 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (27 août 2015) :
 variété Rhododendron anthopogon var. haemonium (Balf. f. &amp; R.E. Cooper) Cowan &amp; Davidian
-Selon Tropicos                                           (27 août 2015)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 août 2015) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Rhododendron anthopogon subsp. hypenanthum (Balf. f.) Cullen
 variété Rhododendron anthopogon var. album Davidian
 variété Rhododendron anthopogon var. haemonium (Balf. f. &amp; R.E. Cooper) Cowan &amp; Davidian
